--- a/8 - 8_BIT TIMER COUNTER/Checklist.xlsx
+++ b/8 - 8_BIT TIMER COUNTER/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Semicon Internship\Semicon Basic Course Practice\8 - 8_BIT TIMER COUNTER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A1E631-F4A9-4F9F-988F-62995CB553AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56982DB-73A2-4BD6-90D7-CC40D351A1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="93">
   <si>
     <t>TIMER TEST PLAN</t>
   </si>
@@ -224,40 +224,7 @@
     <t>Pause</t>
   </si>
   <si>
-    <t>-Enter a random number less than 255.
--The timer is enabled and counts up with an internal clock of pclk × 2, starting from the number read above.
--It runs for a while, then pauses for a duration of COUNT_PAUSE time units. 
--After the pause, it checks if an overflow occurred. If an overflow is detected, it displays a "faulty" message; otherwise, it displays a "pass" (normal operation).
--Keep the operation condition unchanged for the timer to count up and set the EN bit to 1. The timer continues counting up and, upon reaching 255, transfes to 0.
--Check if the overflow status is triggered. If so, display a "pass" message (normal operation); otherwise, display a "faulty" message.</t>
-  </si>
-  <si>
-    <t>-Write a random value to the TDR (address = 0).
--Load the value from TDR into the TCNT register.
--Set the conditions for operation, including disabling the LOAD bit, setting the count-up bit, configuring the internal clock to be equivalent to pclk × 2, and finally enabling the EN bit to put the timer into operation.
--The timer runs and counts up for a while, then disable the EN bit to stop the timer during the PAUSE time units.
--After the pause, check the overflow status and display the appropriate message: indicate a fault if overflow is triggered, or normal operation if overflow has not yet been triggered.
--Enable the timer (set the EN bit to 1). The timer continues counting up from where it stopped. Once the timer exceeds 255, check if the overflow status is triggered. If so, display a "pass" message (normal operation); otherwise, display a "faulty" message.</t>
-  </si>
-  <si>
     <t>countdw_pause_countdw_pclk2.v</t>
-  </si>
-  <si>
-    <t>Enter a random number less than 255.
--The timer is enabled and counts down with an internal clock of pclk × 2, starting from the number read above.
--It runs for a while, then pauses for a duration of COUNT_PAUSE time units.
-- After the pause, it checks if an underflow occurred. If an underflow is detected, it displays a "faulty" message; otherwise, it displays a "pass" (normal operation).
-- Keep the operation condition for the timer as before: counting-down, pclk2 and set the EN bit to 1. 
--The timer continues counting down and, upon reaching below 0, converts to 255.
--Check if the underflow status is triggered. If so, display a "pass" message (normal operation); otherwise, display a "faulty" message.</t>
-  </si>
-  <si>
-    <t>-Write a random value to the TDR (address = 0).
--Load the value from TDR into the TCNT register.
--Set the conditions for operation, including disabling the LOAD bit, setting the count-down bit, configuring the internal clock to be equivalent to pclk × 2, and finally enabling the EN bit to put the timer into operation.
--The timer runs and counts down for a while, then disable the EN bit to stop the timer during the PAUSE time units.
--After the pause, check the underflow status and display the appropriate message: indicate a fault if underflow is triggered, or normal operation if underflow has not yet been triggered.
--Enable the timer (set the EN bit to 1). The timer continues counting down from where it stopped. Once the timer goes below 0, transfers to 255, check if the underflow status is triggered. If so, display a "pass" message (normal operation); otherwise, display a "faulty" message.</t>
   </si>
   <si>
     <t>countup_reset_countdw_pclk2.v</t>
@@ -400,6 +367,42 @@
   </si>
   <si>
     <t>Oct 10th</t>
+  </si>
+  <si>
+    <t>-Enter a random number less than 255.
+-The timer is enabled and counts up with an internal clock of pclk × 2, starting from the number read above.
+-It runs for a while, then pauses for a duration of COUNT_PAUSE time units. 
+-After the pause, it checks if an overflow occurred. If an overflow is detected, it displays a "faulty" message; otherwise, it displays a "pass" (normal operation).
+-Keep the operation condition unchanged for the timer to count up and set the EN bit to 1. The timer continues counting up and, upon reaching 255, transfes to 0.
+-Check if the overflow status is triggered. If so, display a "faulty" message (normal operation); otherwise, display a "pass" message.</t>
+  </si>
+  <si>
+    <t>Oct 11th</t>
+  </si>
+  <si>
+    <t>Enter a random number less than 255.
+-The timer is enabled and counts down with an internal clock of pclk × 2, starting from the number read above.
+-It runs for a while, then pauses for a duration of COUNT_PAUSE time units.
+- After the pause, it checks if an underflow occurred. If an underflow is detected, it displays a "faulty" message; otherwise, it displays a "pass" (normal operation).
+- Keep the operation condition for the timer as before: counting-down, pclk2 and set the EN bit to 1. 
+-The timer continues counting down and, upon reaching below 0, converts to 255.
+-Check if the underflow status is triggered. If so, display a "faulty" message (normal operation); otherwise, display a "pass" message.</t>
+  </si>
+  <si>
+    <t>-Write a random value to the TDR (address = 0).
+-Load the value from TDR into the TCNT register.
+-Set the conditions for operation, including disabling the LOAD bit, setting the count-down bit, configuring the internal clock to be equivalent to pclk × 2, and finally enabling the EN bit to put the timer into operation.
+-The timer runs and counts down for a while, then disable the EN bit to stop the timer during the PAUSE time units.
+-After the pause, check the underflow status and display the appropriate message: indicate a fault if underflow is triggered, or normal operation if underflow has not yet been triggered.
+-Enable the timer (set the EN bit to 1). The timer continues counting down from where it stopped. Once the timer goes below 0, transfers to 255, check if the underflow status is triggered. If so, display a "faulty" message (normal operation); otherwise, display a "pass" message.</t>
+  </si>
+  <si>
+    <t>-Write a random value to the TDR (address = 0).
+-Load the value from TDR into the TCNT register.
+-Set the conditions for operation, including disabling the LOAD bit, setting the count-up bit, configuring the internal clock to be equivalent to pclk × 2, and finally enabling the EN bit to put the timer into operation.
+-The timer runs and counts up for a while, then disable the EN bit to stop the timer during the PAUSE time units.
+-After the pause, check the overflow status and display the appropriate message: indicate a fault if overflow is triggered, or normal operation if overflow has not yet been triggered.
+-Enable the timer (set the EN bit to 1). The timer continues counting up from where it stopped. Once the timer exceeds 255, check if the overflow status is triggered. If so, display a "faulty" message (normal operation); otherwise, display a "pass" message.</t>
   </si>
 </sst>
 </file>
@@ -958,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22:I23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1116,10 +1119,10 @@
         <v>17</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>17</v>
@@ -1151,10 +1154,10 @@
         <v>17</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K10" s="18" t="s">
         <v>21</v>
@@ -1186,10 +1189,10 @@
         <v>17</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>25</v>
@@ -1215,16 +1218,16 @@
         <v>27</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K12" s="20" t="s">
         <v>28</v>
@@ -1250,16 +1253,16 @@
         <v>30</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -1314,19 +1317,19 @@
         <v>33</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="51">
@@ -1349,10 +1352,10 @@
         <v>17</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="51">
@@ -1375,10 +1378,10 @@
         <v>17</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="51">
@@ -1401,10 +1404,10 @@
         <v>17</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="255">
@@ -1418,7 +1421,7 @@
         <v>44</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F20" s="22" t="s">
         <v>45</v>
@@ -1427,10 +1430,10 @@
         <v>17</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="51">
@@ -1453,10 +1456,10 @@
         <v>17</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="51">
@@ -1479,10 +1482,10 @@
         <v>17</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="51">
@@ -1505,10 +1508,10 @@
         <v>17</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J23" s="21"/>
     </row>
@@ -1523,54 +1526,62 @@
         <v>56</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="7"/>
+        <v>92</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="25" spans="2:10" ht="267.75">
       <c r="B25" s="5">
         <v>15</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="26" spans="2:10" ht="293.25">
       <c r="B26" s="5">
         <v>16</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G26" s="20" t="s">
         <v>28</v>
@@ -1583,16 +1594,16 @@
         <v>17</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="22" t="s">
-        <v>67</v>
-      </c>
       <c r="F27" s="22" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G27" s="20" t="s">
         <v>28</v>
@@ -1605,16 +1616,16 @@
         <v>18</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>28</v>
@@ -1627,16 +1638,16 @@
         <v>19</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>28</v>
@@ -1649,16 +1660,16 @@
         <v>20</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>28</v>
@@ -1671,16 +1682,16 @@
         <v>21</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="22" t="s">
-        <v>78</v>
-      </c>
       <c r="F31" s="22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G31" s="20" t="s">
         <v>28</v>
@@ -1875,18 +1886,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1908,18 +1919,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C3FE97-A973-426F-8255-88963C41E551}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145DDC68-D49D-4E57-91D8-28ACD87E078E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C3FE97-A973-426F-8255-88963C41E551}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/8 - 8_BIT TIMER COUNTER/Checklist.xlsx
+++ b/8 - 8_BIT TIMER COUNTER/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Semicon Internship\Semicon Basic Course Practice\8 - 8_BIT TIMER COUNTER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56982DB-73A2-4BD6-90D7-CC40D351A1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CDF269-4F8C-40E2-B3B8-FF6EE674C3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
   <si>
     <t>TIMER TEST PLAN</t>
   </si>
@@ -403,6 +403,12 @@
 -The timer runs and counts up for a while, then disable the EN bit to stop the timer during the PAUSE time units.
 -After the pause, check the overflow status and display the appropriate message: indicate a fault if overflow is triggered, or normal operation if overflow has not yet been triggered.
 -Enable the timer (set the EN bit to 1). The timer continues counting up from where it stopped. Once the timer exceeds 255, check if the overflow status is triggered. If so, display a "faulty" message (normal operation); otherwise, display a "pass" message.</t>
+  </si>
+  <si>
+    <t>Oct 12th</t>
+  </si>
+  <si>
+    <t>Oct 13th</t>
   </si>
 </sst>
 </file>
@@ -961,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:I25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1538,7 +1544,7 @@
         <v>89</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="267.75">
@@ -1564,7 +1570,7 @@
         <v>89</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="293.25">
@@ -1583,11 +1589,15 @@
       <c r="F26" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="13"/>
-      <c r="I26" s="7"/>
+      <c r="G26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="27" spans="2:10" ht="280.5">
       <c r="B27" s="5">
@@ -1886,18 +1896,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1919,18 +1929,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C3FE97-A973-426F-8255-88963C41E551}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145DDC68-D49D-4E57-91D8-28ACD87E078E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C3FE97-A973-426F-8255-88963C41E551}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/8 - 8_BIT TIMER COUNTER/Checklist.xlsx
+++ b/8 - 8_BIT TIMER COUNTER/Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\Semicon Internship\Semicon Basic Course Practice\8 - 8_BIT TIMER COUNTER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CDF269-4F8C-40E2-B3B8-FF6EE674C3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20B34EA-346C-4B3B-ABA1-BE604DA7E6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="95">
   <si>
     <t>TIMER TEST PLAN</t>
   </si>
@@ -967,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1615,11 +1615,15 @@
       <c r="F27" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="7"/>
+      <c r="G27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="28" spans="2:10" ht="63.75">
       <c r="B28" s="5">
@@ -1637,11 +1641,15 @@
       <c r="F28" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="7"/>
+      <c r="G28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="29" spans="2:10" ht="63.75">
       <c r="B29" s="5">
@@ -1659,11 +1667,15 @@
       <c r="F29" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="13"/>
-      <c r="I29" s="7"/>
+      <c r="G29" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="30" spans="2:10" ht="102">
       <c r="B30" s="5">
@@ -1896,18 +1908,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1929,18 +1941,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C3FE97-A973-426F-8255-88963C41E551}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{145DDC68-D49D-4E57-91D8-28ACD87E078E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5C3FE97-A973-426F-8255-88963C41E551}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>